--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2635766070173702</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.598562687318969</v>
+        <v>-1.59822427320789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1535102639928131</v>
+        <v>0.1536440556181236</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2455917283277042</v>
+        <v>-0.24569561358971</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2844171407838415</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.530805099194778</v>
+        <v>-1.529984248223019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1019516936554877</v>
+        <v>0.1017580893035677</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2488389297749475</v>
+        <v>-0.2489994797253201</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3140639345951267</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.485785791296896</v>
+        <v>-1.484310935380238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09759166068948481</v>
+        <v>0.09734768772568321</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2589913531073369</v>
+        <v>-0.2590165374132777</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3325129725281857</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.555019809356868</v>
+        <v>-1.553725178629598</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1251731977520368</v>
+        <v>0.1243814661340225</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2356218912133856</v>
+        <v>-0.2355668005441401</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3335790699310274</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.589461708759609</v>
+        <v>-1.5886038683385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101365930862513</v>
+        <v>0.1089497826687906</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2616026508295747</v>
+        <v>-0.2614814513572346</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3225437424225664</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.476234643268844</v>
+        <v>-1.475550731960638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1235834384395231</v>
+        <v>0.1218299811383941</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2534492317812372</v>
+        <v>-0.253280811735258</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3098417723061958</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.261349552828874</v>
+        <v>-1.261446355004834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1601809570288854</v>
+        <v>0.1579773302590644</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2599483567330877</v>
+        <v>-0.2596209607558572</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2991061859884921</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.004760825770042</v>
+        <v>-1.005294418252163</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1821778742490625</v>
+        <v>0.1794548211692123</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2575873280511367</v>
+        <v>-0.2571481767162938</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2889326727092368</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.592203330991086</v>
+        <v>-0.5931587605977156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1710117826025554</v>
+        <v>0.1681391977061817</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1657385902658776</v>
+        <v>-0.1651247228085704</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2748787650961062</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2196770775146096</v>
+        <v>-0.2209740692705614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1406788601159698</v>
+        <v>0.1379683991890901</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1300036341549881</v>
+        <v>-0.1295251323421127</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2500529448795594</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2412885883303885</v>
+        <v>0.2398247505475789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1060583095429612</v>
+        <v>0.1037082989948593</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0393118004238851</v>
+        <v>-0.03904106913502138</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2050210707152281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7661861888252567</v>
+        <v>0.7638172900476992</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.003043251830874654</v>
+        <v>-0.004581068512385426</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05462880877358255</v>
+        <v>0.05476417441801441</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1336000563169407</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310966798860395</v>
+        <v>1.308216987455483</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2275172667578083</v>
+        <v>-0.2293368328620319</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1589847024966969</v>
+        <v>0.1588147084315964</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03677399393718706</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872304516032496</v>
+        <v>1.869527946302521</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4388907205381564</v>
+        <v>-0.4408519483632971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292696052832069</v>
+        <v>0.2924851342698147</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.08073974685801388</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343665004154563</v>
+        <v>2.34072001437861</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6631270585777737</v>
+        <v>-0.6648726457832962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4373074855824484</v>
+        <v>0.436986385681703</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.208753142008199</v>
       </c>
       <c r="E17" t="n">
-        <v>2.798306261170175</v>
+        <v>2.795252664074852</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8762618397548573</v>
+        <v>-0.8774880006503505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5567440565067445</v>
+        <v>0.5560200077109463</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3338833669376806</v>
       </c>
       <c r="E18" t="n">
-        <v>3.220388932661682</v>
+        <v>3.217971239291365</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.204719492882718</v>
+        <v>-1.205762280550579</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6781009307590276</v>
+        <v>0.6773391055043181</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4513366443235757</v>
       </c>
       <c r="E19" t="n">
-        <v>3.594456150857912</v>
+        <v>3.592246228011606</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.50431829243109</v>
+        <v>-1.504642540370078</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8392395642830642</v>
+        <v>0.8384525547224139</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5647832882206452</v>
       </c>
       <c r="E20" t="n">
-        <v>3.71765777552036</v>
+        <v>3.71524952626477</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.840723168102398</v>
+        <v>-1.840817609249676</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015948394955007</v>
+        <v>1.014964633004194</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6796369849939077</v>
       </c>
       <c r="E21" t="n">
-        <v>3.966961942085812</v>
+        <v>3.964915717228121</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078052984202555</v>
+        <v>-2.077560316217588</v>
       </c>
       <c r="G21" t="n">
-        <v>1.184154374333684</v>
+        <v>1.183063579082622</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.798528039861488</v>
       </c>
       <c r="E22" t="n">
-        <v>4.172579207939563</v>
+        <v>4.170067073421968</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374001633408632</v>
+        <v>-2.373957560873235</v>
       </c>
       <c r="G22" t="n">
-        <v>1.324634006890649</v>
+        <v>1.323359051402395</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9195228452930068</v>
       </c>
       <c r="E23" t="n">
-        <v>4.398019670606976</v>
+        <v>4.395710584556028</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.50561481625531</v>
+        <v>-2.505559725586064</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49640356555995</v>
+        <v>1.494991670408144</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.039490716636777</v>
       </c>
       <c r="E24" t="n">
-        <v>4.525480591011663</v>
+        <v>4.523417051943637</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.619777636113688</v>
+        <v>-2.620051515440795</v>
       </c>
       <c r="G24" t="n">
-        <v>1.600606779428299</v>
+        <v>1.599042204421726</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.152098493671525</v>
       </c>
       <c r="E25" t="n">
-        <v>4.666703160593881</v>
+        <v>4.665042570420909</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.816403317737009</v>
+        <v>-2.817027416318605</v>
       </c>
       <c r="G25" t="n">
-        <v>1.663811517244128</v>
+        <v>1.662248516256676</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.250287314621511</v>
       </c>
       <c r="E26" t="n">
-        <v>4.78067158909078</v>
+        <v>4.779204603269727</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.906515125421913</v>
+        <v>-2.90710459558284</v>
       </c>
       <c r="G26" t="n">
-        <v>1.70696797351195</v>
+        <v>1.705557652379265</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.326788829946359</v>
       </c>
       <c r="E27" t="n">
-        <v>4.891868169915067</v>
+        <v>4.890815151122916</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979322166887237</v>
+        <v>-2.980202830585605</v>
       </c>
       <c r="G27" t="n">
-        <v>1.757665555389924</v>
+        <v>1.756289862677907</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.378640635859916</v>
       </c>
       <c r="E28" t="n">
-        <v>4.892113716897989</v>
+        <v>4.890862371696556</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069277359669571</v>
+        <v>-3.070117885880346</v>
       </c>
       <c r="G28" t="n">
-        <v>1.799424282678031</v>
+        <v>1.797903780206855</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.40643720310376</v>
       </c>
       <c r="E29" t="n">
-        <v>4.901998556979757</v>
+        <v>4.900648048573681</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083711115011899</v>
+        <v>-3.08442650670253</v>
       </c>
       <c r="G29" t="n">
-        <v>1.730472801050333</v>
+        <v>1.728827951068574</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.412740726057523</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843977064130372</v>
+        <v>4.842453413620952</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073719241629882</v>
+        <v>-3.074444864444802</v>
       </c>
       <c r="G30" t="n">
-        <v>1.694108237290923</v>
+        <v>1.692644399508114</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.40008340300038</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718902356713576</v>
+        <v>4.717501479695619</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.063187479689259</v>
+        <v>-3.063835975567235</v>
       </c>
       <c r="G31" t="n">
-        <v>1.635397324066408</v>
+        <v>1.633933486283598</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.370844266124442</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639439575393832</v>
+        <v>4.637961571438932</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.024745210689733</v>
+        <v>-3.025242600732064</v>
       </c>
       <c r="G32" t="n">
-        <v>1.597661789652345</v>
+        <v>1.596429332680366</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.325386476267172</v>
       </c>
       <c r="E33" t="n">
-        <v>4.561958484147806</v>
+        <v>4.56100777659854</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.955686695761786</v>
+        <v>-2.95624783357853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.568663635380622</v>
+        <v>1.56766885529596</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.263521980440997</v>
       </c>
       <c r="E34" t="n">
-        <v>4.359898501508194</v>
+        <v>4.358442533820991</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.883778419214725</v>
+        <v>-2.884438720236111</v>
       </c>
       <c r="G34" t="n">
-        <v>1.518238358810634</v>
+        <v>1.517470237479439</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.188925573179196</v>
       </c>
       <c r="E35" t="n">
-        <v>4.134909782328595</v>
+        <v>4.133711953777286</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.85250187226492</v>
+        <v>-2.853225134051157</v>
       </c>
       <c r="G35" t="n">
-        <v>1.396684732168188</v>
+        <v>1.395995311793058</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.107777413973085</v>
       </c>
       <c r="E36" t="n">
-        <v>3.984285596534847</v>
+        <v>3.983196375302907</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.8275497341445</v>
+        <v>-2.828295032198436</v>
       </c>
       <c r="G36" t="n">
-        <v>1.370541848582505</v>
+        <v>1.369970479641473</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.025697496643474</v>
       </c>
       <c r="E37" t="n">
-        <v>3.788490209998012</v>
+        <v>3.787593019098871</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.763631178657161</v>
+        <v>-2.76445281663848</v>
       </c>
       <c r="G37" t="n">
-        <v>1.283182213331195</v>
+        <v>1.282602974294557</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9450497300410612</v>
       </c>
       <c r="E38" t="n">
-        <v>3.719335679903666</v>
+        <v>3.718803661440667</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.732665500483813</v>
+        <v>-2.73362958719561</v>
       </c>
       <c r="G38" t="n">
-        <v>1.240247693759476</v>
+        <v>1.239865207113001</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8672106344801052</v>
       </c>
       <c r="E39" t="n">
-        <v>3.509381991370732</v>
+        <v>3.509015244915469</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.750699824566115</v>
+        <v>-2.751598589484378</v>
       </c>
       <c r="G39" t="n">
-        <v>1.165184295883768</v>
+        <v>1.16470264603265</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7914528610951027</v>
       </c>
       <c r="E40" t="n">
-        <v>3.263880655002342</v>
+        <v>3.263386412998253</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.716491667002888</v>
+        <v>-2.717337702280587</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101066626977584</v>
+        <v>1.100584977126466</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7160318274743463</v>
       </c>
       <c r="E41" t="n">
-        <v>3.091912769923757</v>
+        <v>3.091585373946526</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.656043036668456</v>
+        <v>-2.656626210752898</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069145519197606</v>
+        <v>1.068734700206947</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6407236307369515</v>
       </c>
       <c r="E42" t="n">
-        <v>2.978614873572533</v>
+        <v>2.978572375056258</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.625020693806741</v>
+        <v>-2.625778584013647</v>
       </c>
       <c r="G42" t="n">
-        <v>0.984926052093292</v>
+        <v>0.9844758826246</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5658786615991441</v>
       </c>
       <c r="E43" t="n">
-        <v>2.845377302992672</v>
+        <v>2.845637016147687</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.608454929564612</v>
+        <v>-2.609307260918796</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9328165750635113</v>
+        <v>0.9323475173653638</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4921743492256552</v>
       </c>
       <c r="E44" t="n">
-        <v>2.717503989578204</v>
+        <v>2.717740092446399</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.536507302539518</v>
+        <v>-2.537299034157532</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8685178939583783</v>
+        <v>0.8682865131475471</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4198337349726145</v>
       </c>
       <c r="E45" t="n">
-        <v>2.520663454344826</v>
+        <v>2.521041218933938</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.471092641877383</v>
+        <v>-2.471811968615817</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8387264340495202</v>
+        <v>0.8384730169709907</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3483058057512527</v>
       </c>
       <c r="E46" t="n">
-        <v>2.395085060809214</v>
+        <v>2.395563562622089</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.431359677198389</v>
+        <v>-2.432459916564178</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7753154997288007</v>
+        <v>0.7750951370518185</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2769346705440099</v>
       </c>
       <c r="E47" t="n">
-        <v>2.232183525869321</v>
+        <v>2.232548698305463</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.295942090135527</v>
+        <v>-2.296751922973437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7188601559051089</v>
+        <v>0.7187027539929788</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2055203290852303</v>
       </c>
       <c r="E48" t="n">
-        <v>2.144383165264047</v>
+        <v>2.145011198893446</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.254871209203428</v>
+        <v>-2.256080842898148</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6701663003685508</v>
+        <v>0.6700419528579681</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1348410752790022</v>
       </c>
       <c r="E49" t="n">
-        <v>1.991264159163038</v>
+        <v>1.991950431499925</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.203004131118328</v>
+        <v>-2.204235014071185</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5955546459806557</v>
+        <v>0.5955971444969307</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06570284169236446</v>
       </c>
       <c r="E50" t="n">
-        <v>1.898458417752028</v>
+        <v>1.898940067603146</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.155582870041342</v>
+        <v>-2.15681532701332</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5387734801988546</v>
+        <v>0.5387844983327037</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.001744522672624611</v>
       </c>
       <c r="E51" t="n">
-        <v>1.774669683957335</v>
+        <v>1.77502698629787</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.105651048465881</v>
+        <v>-2.106911837782043</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4934433035245161</v>
+        <v>0.49360542749401</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06700954806485238</v>
       </c>
       <c r="E52" t="n">
-        <v>1.663488843324261</v>
+        <v>1.66349986145811</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.986981024853658</v>
+        <v>-1.988001776253821</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4579869487980968</v>
+        <v>0.4580939820983452</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1300066740754755</v>
       </c>
       <c r="E53" t="n">
-        <v>1.620286740501921</v>
+        <v>1.620634598727729</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.927566525081921</v>
+        <v>-1.928525102726793</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3866287919339301</v>
+        <v>0.3865831453794124</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1907545302318818</v>
       </c>
       <c r="E54" t="n">
-        <v>1.577449810115723</v>
+        <v>1.578033771209725</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.917358224070725</v>
+        <v>-1.918369531356161</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3521247187758977</v>
+        <v>0.3521687913112941</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2489898548211806</v>
       </c>
       <c r="E55" t="n">
-        <v>1.522996618614326</v>
+        <v>1.523580579708328</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.851872732548131</v>
+        <v>-1.852914733206433</v>
       </c>
       <c r="G55" t="n">
-        <v>0.325146031036804</v>
+        <v>0.3253128770636618</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3037999368742731</v>
       </c>
       <c r="E56" t="n">
-        <v>1.464707542514319</v>
+        <v>1.465768431402075</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.789690320151587</v>
+        <v>-1.790667786025915</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2173351653424346</v>
+        <v>0.217237576156914</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3552629582938266</v>
       </c>
       <c r="E57" t="n">
-        <v>1.475599754833719</v>
+        <v>1.476407226642946</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.787630716131365</v>
+        <v>-1.788451567103124</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2184952174348332</v>
+        <v>0.2183598517904014</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4028575224678579</v>
       </c>
       <c r="E58" t="n">
-        <v>1.461268310734277</v>
+        <v>1.462141891346598</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.772499670318302</v>
+        <v>-1.773400796265246</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2141635168130138</v>
+        <v>0.214007688920005</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4469145600637896</v>
       </c>
       <c r="E59" t="n">
-        <v>1.449754360861962</v>
+        <v>1.450827841902689</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.735950159312139</v>
+        <v>-1.736581340979781</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1401216573470294</v>
+        <v>0.1397848172550711</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4891700448480433</v>
       </c>
       <c r="E60" t="n">
-        <v>1.483063753506927</v>
+        <v>1.484678697125382</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.768478051463378</v>
+        <v>-1.769198952220934</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1199915268047149</v>
+        <v>0.1196578347509992</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5312853797388326</v>
       </c>
       <c r="E61" t="n">
-        <v>1.481231595249733</v>
+        <v>1.482929961881617</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.78681380020741</v>
+        <v>-1.787577199481241</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1324971087234489</v>
+        <v>0.1322641538934964</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5740842972343601</v>
       </c>
       <c r="E62" t="n">
-        <v>1.492747119141169</v>
+        <v>1.494536778882088</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.830972906655501</v>
+        <v>-1.831698529470421</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04486202012591178</v>
+        <v>0.04440083252337067</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6173572506055398</v>
       </c>
       <c r="E63" t="n">
-        <v>1.479882660862778</v>
+        <v>1.481686486775789</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.791960842734063</v>
+        <v>-1.792305552921628</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01041303763712493</v>
+        <v>0.01001166276119325</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6603278658594615</v>
       </c>
       <c r="E64" t="n">
-        <v>1.481813982324614</v>
+        <v>1.483655584696536</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.819476270993521</v>
+        <v>-1.819856396611315</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02005210245564989</v>
+        <v>-0.02034329599309051</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7021260231792018</v>
       </c>
       <c r="E65" t="n">
-        <v>1.492887206842965</v>
+        <v>1.494801214094466</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.844962001596061</v>
+        <v>-1.845335044127809</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02289792902696153</v>
+        <v>-0.0232851377308015</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7419859884931396</v>
       </c>
       <c r="E66" t="n">
-        <v>1.456506902892342</v>
+        <v>1.458214713638953</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.850235752661979</v>
+        <v>-1.850437227109505</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0310576441517843</v>
+        <v>-0.03155818223235791</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7794436208278629</v>
       </c>
       <c r="E67" t="n">
-        <v>1.422368002170451</v>
+        <v>1.424192290332039</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.861958260067866</v>
+        <v>-1.862028303918764</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05021975293449887</v>
+        <v>-0.05067149642231217</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8133441134330236</v>
       </c>
       <c r="E68" t="n">
-        <v>1.37230317597924</v>
+        <v>1.374207739116014</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.891749719976724</v>
+        <v>-1.891730044737707</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05777032265937827</v>
+        <v>-0.05800485150845207</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8419402828630931</v>
       </c>
       <c r="E69" t="n">
-        <v>1.267999224887129</v>
+        <v>1.269744812092651</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.913092632252</v>
+        <v>-1.913049346726165</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07990890160047244</v>
+        <v>-0.080267777960129</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.86388311435941</v>
       </c>
       <c r="E70" t="n">
-        <v>1.284573646234425</v>
+        <v>1.286752088698305</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.918538738411701</v>
+        <v>-1.918010654996504</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0484521294612782</v>
+        <v>-0.04877008132378093</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8782466385023026</v>
       </c>
       <c r="E71" t="n">
-        <v>1.277215106842345</v>
+        <v>1.279516322797686</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.952569818823782</v>
+        <v>-1.952048818494632</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0683870816325514</v>
+        <v>-0.06847522670334424</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8831232183364675</v>
       </c>
       <c r="E72" t="n">
-        <v>1.260508467888859</v>
+        <v>1.26314809795528</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.982177118495448</v>
+        <v>-1.981442838575362</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1035207624391041</v>
+        <v>-0.1037033486571749</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8763859505830932</v>
       </c>
       <c r="E73" t="n">
-        <v>1.265024328747871</v>
+        <v>1.267980336657673</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.981933145531647</v>
+        <v>-1.981116229607692</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0907837997095389</v>
+        <v>-0.09092073937309206</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8581074875019371</v>
       </c>
       <c r="E74" t="n">
-        <v>1.258841581639402</v>
+        <v>1.262458677580151</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.98983944357794</v>
+        <v>-1.988893458086038</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07146586303381555</v>
+        <v>-0.07153039781778887</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8287968630926892</v>
       </c>
       <c r="E75" t="n">
-        <v>1.202444476523198</v>
+        <v>1.206151291553861</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.022616030750345</v>
+        <v>-2.021638564876017</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04348609913357453</v>
+        <v>-0.043431008464329</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7890231636184661</v>
       </c>
       <c r="E76" t="n">
-        <v>1.236890310973742</v>
+        <v>1.241223585614683</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.025722357486232</v>
+        <v>-2.024635497282974</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02364244007133676</v>
+        <v>-0.02342207739435466</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7404827533096408</v>
       </c>
       <c r="E77" t="n">
-        <v>1.169863854731395</v>
+        <v>1.174792108600187</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.023432159664739</v>
+        <v>-2.022178453434623</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02524636555594216</v>
+        <v>-0.02514090627481501</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6851516916469859</v>
       </c>
       <c r="E78" t="n">
-        <v>1.188574220026296</v>
+        <v>1.193839313987047</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.034031604427578</v>
+        <v>-2.032732251642944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02036533226078872</v>
+        <v>-0.02007099068510549</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6254731203371291</v>
       </c>
       <c r="E79" t="n">
-        <v>1.173107908140396</v>
+        <v>1.178799561283019</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.011324804583694</v>
+        <v>-2.009802728093397</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04202855742725009</v>
+        <v>-0.04186958149599872</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5649135477026698</v>
       </c>
       <c r="E80" t="n">
-        <v>1.150449902889272</v>
+        <v>1.156202942777626</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.97253467735836</v>
+        <v>-1.971373838256401</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02598772856207478</v>
+        <v>-0.02566977669957204</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5064292582482079</v>
       </c>
       <c r="E81" t="n">
-        <v>1.174247497984217</v>
+        <v>1.17992655897387</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.925596640151613</v>
+        <v>-1.924409829734152</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.006458873324097147</v>
+        <v>-0.006007129836283849</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4509931102757371</v>
       </c>
       <c r="E82" t="n">
-        <v>1.232070664424319</v>
+        <v>1.238086565505931</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.954065136989018</v>
+        <v>-1.953146696831739</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02125645536376537</v>
+        <v>0.02182467626655491</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3981579471032278</v>
       </c>
       <c r="E83" t="n">
-        <v>1.318350522558417</v>
+        <v>1.324253094263294</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.848625531100888</v>
+        <v>-1.847954211945653</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0135657979370902</v>
+        <v>0.01399235711896269</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.347623554611258</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311399654118753</v>
+        <v>1.316952793578702</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.787474101228796</v>
+        <v>-1.787153788337611</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02395904619503865</v>
+        <v>0.02435569901360642</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2991017787705174</v>
       </c>
       <c r="E85" t="n">
-        <v>1.420192707744814</v>
+        <v>1.425289381659585</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.759587991466272</v>
+        <v>-1.75968243261355</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01738279430624437</v>
+        <v>0.01779203927778255</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2527131741124659</v>
       </c>
       <c r="E86" t="n">
-        <v>1.665794781336967</v>
+        <v>1.670488506356685</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.654606425142441</v>
+        <v>-1.655119555375985</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03296873164536378</v>
+        <v>0.03340001288460017</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2105017999784958</v>
       </c>
       <c r="E87" t="n">
-        <v>1.59898711375248</v>
+        <v>1.602664022419839</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53472912886418</v>
+        <v>-1.535530304596922</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05367180514783173</v>
+        <v>0.05409836432970421</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1760338436636898</v>
       </c>
       <c r="E88" t="n">
-        <v>1.746979539575414</v>
+        <v>1.750122855760651</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.33450996158693</v>
+        <v>-1.335376459113206</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09034802469325906</v>
+        <v>0.09075097358831204</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1522133354292869</v>
       </c>
       <c r="E89" t="n">
-        <v>1.915026543022839</v>
+        <v>1.917499327062402</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159105992766545</v>
+        <v>-1.160034664048112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1140968251954438</v>
+        <v>0.1144682937080708</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1410432683626524</v>
       </c>
       <c r="E90" t="n">
-        <v>1.935723320448822</v>
+        <v>1.937470481673465</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9181803299837765</v>
+        <v>-0.9192207566229562</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1429895201860392</v>
+        <v>0.1433452485074532</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1436913697028339</v>
       </c>
       <c r="E91" t="n">
-        <v>1.974124664951194</v>
+        <v>1.975591650772247</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6651339329574321</v>
+        <v>-0.6665662903578157</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09576894654701862</v>
+        <v>0.09592320042090609</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1585261529680594</v>
       </c>
       <c r="E92" t="n">
-        <v>1.990599923093849</v>
+        <v>1.991704884517002</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4594914827977398</v>
+        <v>-0.461104852397073</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1071003102012623</v>
+        <v>0.1072954885723036</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.181296841970572</v>
       </c>
       <c r="E93" t="n">
-        <v>1.963954927408471</v>
+        <v>1.965026834430077</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.238722708882348</v>
+        <v>-0.2401849726460363</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09196611634995616</v>
+        <v>0.09223212558145598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2059849113939261</v>
       </c>
       <c r="E94" t="n">
-        <v>1.850915170193141</v>
+        <v>1.851957170851442</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05549114297173487</v>
+        <v>-0.05700849740466873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06668579524274582</v>
+        <v>0.06692347213006222</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2250111301979825</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79994370898806</v>
+        <v>1.800642573477918</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07571909097989046</v>
+        <v>0.07405692678779693</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05442261226869215</v>
+        <v>0.05468547346194937</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2347353322937854</v>
       </c>
       <c r="E96" t="n">
-        <v>1.671606059932809</v>
+        <v>1.672270296001998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1485096052444408</v>
+        <v>0.1470158610983264</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00529882123169854</v>
+        <v>-0.005100494822414653</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2383481134481872</v>
       </c>
       <c r="E97" t="n">
-        <v>1.505729628853657</v>
+        <v>1.505912215071728</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1520747585541868</v>
+        <v>0.1505070355093713</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02062661943492464</v>
+        <v>-0.02035431412693962</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2450182708595149</v>
       </c>
       <c r="E98" t="n">
-        <v>1.391890269924706</v>
+        <v>1.392013043416167</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1800372082440936</v>
+        <v>0.1786253130922868</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.058988613459265</v>
+        <v>-0.0585305738949665</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2608554642073687</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251934785735134</v>
+        <v>1.251823030377522</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1828468323756153</v>
+        <v>0.1814853058356902</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09869796785143875</v>
+        <v>-0.09833122139617569</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2899345355708644</v>
       </c>
       <c r="E100" t="n">
-        <v>1.092466186498797</v>
+        <v>1.09222693559236</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2391384782106918</v>
+        <v>0.2380917554950268</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1460051125421309</v>
+        <v>-0.1457359552723885</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3257042821953381</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9101648658888731</v>
+        <v>0.9095132219726547</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2211175332909202</v>
+        <v>0.2200094238295245</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1719150412978615</v>
+        <v>-0.1715341286705068</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3695626653259864</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8504654686561807</v>
+        <v>0.8499570604800005</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2592764788486128</v>
+        <v>0.2584186384275039</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2099559354214566</v>
+        <v>-0.2096143732721343</v>
       </c>
     </row>
   </sheetData>
